--- a/Datasets EY GDS.xlsx
+++ b/Datasets EY GDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="220">
   <si>
     <t>Exception (input)</t>
   </si>
@@ -325,10 +325,154 @@
     <t>Exception Category (ouput)</t>
   </si>
   <si>
+    <t>Solution</t>
+  </si>
+  <si>
     <t>Business Exception</t>
   </si>
   <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1961s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1962s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
     <t>System Exception</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1963s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1964s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1965s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1966s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1967s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1968s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1969s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1970s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1971s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1972s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1973s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1974s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1975s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1976s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1977s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1978s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1979s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1980s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1981s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1982s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1983s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1984s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1985s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1986s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1987s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1988s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1989s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1990s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1991s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1992s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1993s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1994s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1995s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1996s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1997s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1998s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1999s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 2000s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 2001s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 2002s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 2003s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 2004s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 2005s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 2006s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
   </si>
   <si>
     <t>Keywords for System Exception</t>
@@ -540,10 +684,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -595,9 +739,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,54 +753,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,6 +776,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -686,8 +829,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -701,8 +852,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,7 +877,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,22 +885,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,19 +905,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,31 +953,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,7 +1013,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,19 +1031,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,37 +1061,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,7 +1073,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,18 +1086,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,15 +1211,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1091,6 +1226,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1102,15 +1246,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,8 +1268,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,6 +1291,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1167,7 +1311,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1176,139 +1326,133 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2146,13 +2290,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="117.5" customWidth="1"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
@@ -2160,7 +2304,7 @@
     <col min="4" max="4" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1" spans="1:4">
+    <row r="1" ht="16.5" customHeight="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2173,8 +2317,11 @@
       <c r="D1" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" customHeight="1" spans="1:4">
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" customHeight="1" spans="1:5">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -2185,10 +2332,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" customHeight="1" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -2199,10 +2349,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" customHeight="1" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -2213,10 +2366,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" customHeight="1" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -2227,10 +2383,13 @@
         <v>10</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" customHeight="1" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -2241,10 +2400,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" customHeight="1" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
@@ -2255,10 +2417,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" customHeight="1" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" customHeight="1" spans="1:5">
       <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
@@ -2269,10 +2434,13 @@
         <v>19</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" customHeight="1" spans="1:5">
       <c r="A9" s="10" t="s">
         <v>20</v>
       </c>
@@ -2283,10 +2451,13 @@
         <v>22</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" customHeight="1" spans="1:5">
       <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
@@ -2297,10 +2468,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" customHeight="1" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" customHeight="1" spans="1:5">
       <c r="A11" s="10" t="s">
         <v>24</v>
       </c>
@@ -2311,10 +2485,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" customHeight="1" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" customHeight="1" spans="1:5">
       <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
@@ -2325,10 +2502,13 @@
         <v>27</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" customHeight="1" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" customHeight="1" spans="1:5">
       <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
@@ -2339,10 +2519,13 @@
         <v>30</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" customHeight="1" spans="1:5">
       <c r="A14" s="10" t="s">
         <v>31</v>
       </c>
@@ -2353,10 +2536,13 @@
         <v>16</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" customHeight="1" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" customHeight="1" spans="1:5">
       <c r="A15" s="10" t="s">
         <v>32</v>
       </c>
@@ -2367,10 +2553,13 @@
         <v>5</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" customHeight="1" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" customHeight="1" spans="1:5">
       <c r="A16" s="10" t="s">
         <v>33</v>
       </c>
@@ -2381,10 +2570,13 @@
         <v>35</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" customHeight="1" spans="1:5">
       <c r="A17" s="10" t="s">
         <v>36</v>
       </c>
@@ -2395,10 +2587,13 @@
         <v>30</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" customHeight="1" spans="1:5">
       <c r="A18" s="10" t="s">
         <v>37</v>
       </c>
@@ -2409,10 +2604,13 @@
         <v>39</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" customHeight="1" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" customHeight="1" spans="1:5">
       <c r="A19" s="10" t="s">
         <v>40</v>
       </c>
@@ -2423,10 +2621,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" customHeight="1" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" customHeight="1" spans="1:5">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -2437,10 +2638,13 @@
         <v>45</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" customHeight="1" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" customHeight="1" spans="1:5">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
@@ -2451,10 +2655,13 @@
         <v>42</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" customHeight="1" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" customHeight="1" spans="1:5">
       <c r="A22" s="10" t="s">
         <v>48</v>
       </c>
@@ -2465,10 +2672,13 @@
         <v>50</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" customHeight="1" spans="1:5">
       <c r="A23" s="10" t="s">
         <v>51</v>
       </c>
@@ -2479,10 +2689,13 @@
         <v>42</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" customHeight="1" spans="1:5">
       <c r="A24" s="10" t="s">
         <v>52</v>
       </c>
@@ -2493,10 +2706,13 @@
         <v>54</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" customHeight="1" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" customHeight="1" spans="1:5">
       <c r="A25" s="10" t="s">
         <v>55</v>
       </c>
@@ -2507,10 +2723,13 @@
         <v>57</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" customHeight="1" spans="1:5">
       <c r="A26" s="10" t="s">
         <v>58</v>
       </c>
@@ -2521,10 +2740,13 @@
         <v>57</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" customHeight="1" spans="1:5">
       <c r="A27" s="10" t="s">
         <v>59</v>
       </c>
@@ -2535,10 +2757,13 @@
         <v>45</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" ht="16.5" customHeight="1" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" customHeight="1" spans="1:5">
       <c r="A28" s="10" t="s">
         <v>60</v>
       </c>
@@ -2549,10 +2774,13 @@
         <v>42</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" customHeight="1" spans="1:5">
       <c r="A29" s="10" t="s">
         <v>61</v>
       </c>
@@ -2563,10 +2791,13 @@
         <v>63</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" ht="16.5" customHeight="1" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" customHeight="1" spans="1:5">
       <c r="A30" s="10" t="s">
         <v>64</v>
       </c>
@@ -2577,10 +2808,13 @@
         <v>66</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" customHeight="1" spans="1:5">
       <c r="A31" s="10" t="s">
         <v>67</v>
       </c>
@@ -2591,10 +2825,13 @@
         <v>69</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" customHeight="1" spans="1:5">
       <c r="A32" s="10" t="s">
         <v>70</v>
       </c>
@@ -2605,10 +2842,13 @@
         <v>69</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" customHeight="1" spans="1:5">
       <c r="A33" s="10" t="s">
         <v>71</v>
       </c>
@@ -2619,10 +2859,13 @@
         <v>73</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" ht="16.5" customHeight="1" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" customHeight="1" spans="1:5">
       <c r="A34" s="10" t="s">
         <v>74</v>
       </c>
@@ -2633,10 +2876,13 @@
         <v>30</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" customHeight="1" spans="1:5">
       <c r="A35" s="10" t="s">
         <v>75</v>
       </c>
@@ -2647,10 +2893,13 @@
         <v>22</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" customHeight="1" spans="1:5">
       <c r="A36" s="10" t="s">
         <v>76</v>
       </c>
@@ -2661,10 +2910,13 @@
         <v>78</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" customHeight="1" spans="1:5">
       <c r="A37" s="10" t="s">
         <v>79</v>
       </c>
@@ -2675,10 +2927,13 @@
         <v>81</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" ht="16.5" customHeight="1" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" customHeight="1" spans="1:5">
       <c r="A38" s="10" t="s">
         <v>82</v>
       </c>
@@ -2689,10 +2944,13 @@
         <v>84</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" customHeight="1" spans="1:5">
       <c r="A39" s="10" t="s">
         <v>85</v>
       </c>
@@ -2703,10 +2961,13 @@
         <v>87</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" customHeight="1" spans="1:5">
       <c r="A40" s="10" t="s">
         <v>88</v>
       </c>
@@ -2717,10 +2978,13 @@
         <v>22</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" customHeight="1" spans="1:5">
       <c r="A41" s="10" t="s">
         <v>89</v>
       </c>
@@ -2731,10 +2995,13 @@
         <v>22</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" customHeight="1" spans="1:5">
       <c r="A42" s="10" t="s">
         <v>90</v>
       </c>
@@ -2745,10 +3012,13 @@
         <v>22</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" customHeight="1" spans="1:5">
       <c r="A43" s="10" t="s">
         <v>91</v>
       </c>
@@ -2759,10 +3029,13 @@
         <v>54</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5" customHeight="1" spans="1:5">
       <c r="A44" s="10" t="s">
         <v>92</v>
       </c>
@@ -2773,10 +3046,13 @@
         <v>19</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5" customHeight="1" spans="1:5">
       <c r="A45" s="10" t="s">
         <v>94</v>
       </c>
@@ -2787,10 +3063,13 @@
         <v>42</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" customHeight="1" spans="1:5">
       <c r="A46" s="10" t="s">
         <v>95</v>
       </c>
@@ -2801,10 +3080,13 @@
         <v>57</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" ht="16.5" customHeight="1" spans="1:5">
       <c r="A47" s="10" t="s">
         <v>96</v>
       </c>
@@ -2815,10 +3097,13 @@
         <v>98</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" ht="16.5" customHeight="1" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5" customHeight="1" spans="1:5">
       <c r="A48" s="12" t="s">
         <v>99</v>
       </c>
@@ -2829,7 +3114,10 @@
         <v>50</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="E48" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2846,7 +3134,7 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -2858,47 +3146,47 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>71</v>
@@ -2906,43 +3194,43 @@
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="B10" s="6"/>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="B11" s="6"/>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="B12" s="6"/>
     </row>
@@ -2998,807 +3286,807 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" ht="16.5" customHeight="1" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" ht="16.5" customHeight="1" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" ht="16.5" customHeight="1" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" ht="16.5" customHeight="1" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" ht="16.5" customHeight="1" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" ht="16.5" customHeight="1" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" ht="16.5" customHeight="1" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" ht="16.5" customHeight="1" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" ht="16.5" customHeight="1" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" ht="16.5" customHeight="1" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" ht="16.5" customHeight="1" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" ht="16.5" customHeight="1" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" ht="16.5" customHeight="1" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" ht="16.5" customHeight="1" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" ht="16.5" customHeight="1" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" ht="16.5" customHeight="1" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" ht="16.5" customHeight="1" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" ht="16.5" customHeight="1" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" ht="16.5" customHeight="1" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" ht="16.5" customHeight="1" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" ht="16.5" customHeight="1" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" ht="16.5" customHeight="1" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1" spans="1:1">
       <c r="A37" s="2" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" ht="16.5" customHeight="1" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" ht="16.5" customHeight="1" spans="1:1">
       <c r="A39" s="2" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" ht="16.5" customHeight="1" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" ht="16.5" customHeight="1" spans="1:1">
       <c r="A41" s="2" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" ht="16.5" customHeight="1" spans="1:1">
       <c r="A42" s="2" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" ht="16.5" customHeight="1" spans="1:1">
       <c r="A43" s="2" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" ht="16.5" customHeight="1" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" ht="16.5" customHeight="1" spans="1:1">
       <c r="A45" s="2" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" ht="16.5" customHeight="1" spans="1:1">
       <c r="A46" s="2" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1" spans="1:1">
       <c r="A47" s="2" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" ht="16.5" customHeight="1" spans="1:1">
       <c r="A48" s="2" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" ht="16.5" customHeight="1" spans="1:1">
       <c r="A49" s="2" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" ht="16.5" customHeight="1" spans="1:1">
       <c r="A50" s="2" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" ht="16.5" customHeight="1" spans="1:1">
       <c r="A51" s="2" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" ht="16.5" customHeight="1" spans="1:1">
       <c r="A52" s="2" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" ht="16.5" customHeight="1" spans="1:1">
       <c r="A53" s="2" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" ht="16.5" customHeight="1" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" ht="16.5" customHeight="1" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" ht="16.5" customHeight="1" spans="1:1">
       <c r="A56" s="2" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" ht="16.5" customHeight="1" spans="1:1">
       <c r="A57" s="2" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" ht="16.5" customHeight="1" spans="1:1">
       <c r="A58" s="2" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" ht="16.5" customHeight="1" spans="1:1">
       <c r="A59" s="2" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" ht="16.5" customHeight="1" spans="1:1">
       <c r="A60" s="2" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" ht="16.5" customHeight="1" spans="1:1">
       <c r="A61" s="2" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" ht="16.5" customHeight="1" spans="1:1">
       <c r="A62" s="2" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" ht="16.5" customHeight="1" spans="1:1">
       <c r="A63" s="2" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" ht="16.5" customHeight="1" spans="1:1">
       <c r="A64" s="2" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" ht="16.5" customHeight="1" spans="1:1">
       <c r="A65" s="2" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" ht="16.5" customHeight="1" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" ht="16.5" customHeight="1" spans="1:1">
       <c r="A67" s="2" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" ht="16.5" customHeight="1" spans="1:1">
       <c r="A68" s="2" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" ht="16.5" customHeight="1" spans="1:1">
       <c r="A69" s="2" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" ht="16.5" customHeight="1" spans="1:1">
       <c r="A70" s="2" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" ht="16.5" customHeight="1" spans="1:1">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" ht="16.5" customHeight="1" spans="1:1">
       <c r="A72" s="2" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" ht="16.5" customHeight="1" spans="1:1">
       <c r="A73" s="2" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" ht="16.5" customHeight="1" spans="1:1">
       <c r="A74" s="2" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" ht="16.5" customHeight="1" spans="1:1">
       <c r="A75" s="2" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" ht="16.5" customHeight="1" spans="1:1">
       <c r="A76" s="2" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" ht="16.5" customHeight="1" spans="1:1">
       <c r="A77" s="2" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" ht="16.5" customHeight="1" spans="1:1">
       <c r="A78" s="2" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" ht="16.5" customHeight="1" spans="1:1">
       <c r="A79" s="2" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" ht="16.5" customHeight="1" spans="1:1">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" ht="16.5" customHeight="1" spans="1:1">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" ht="16.5" customHeight="1" spans="1:1">
       <c r="A82" s="2" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" ht="16.5" customHeight="1" spans="1:1">
       <c r="A83" s="2" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" ht="16.5" customHeight="1" spans="1:1">
       <c r="A84" s="2" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" ht="16.5" customHeight="1" spans="1:1">
       <c r="A85" s="2" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" ht="16.5" customHeight="1" spans="1:1">
       <c r="A86" s="2" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" ht="16.5" customHeight="1" spans="1:1">
       <c r="A87" s="2" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" ht="16.5" customHeight="1" spans="1:1">
       <c r="A88" s="2" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" ht="16.5" customHeight="1" spans="1:1">
       <c r="A89" s="2" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" ht="16.5" customHeight="1" spans="1:1">
       <c r="A90" s="2" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" ht="16.5" customHeight="1" spans="1:1">
       <c r="A91" s="2" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92" ht="16.5" customHeight="1" spans="1:1">
       <c r="A92" s="2" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" ht="16.5" customHeight="1" spans="1:1">
       <c r="A93" s="2" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" ht="16.5" customHeight="1" spans="1:1">
       <c r="A94" s="2" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" ht="16.5" customHeight="1" spans="1:1">
       <c r="A95" s="2" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96" ht="16.5" customHeight="1" spans="1:1">
       <c r="A96" s="2" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97" ht="16.5" customHeight="1" spans="1:1">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" ht="16.5" customHeight="1" spans="1:1">
       <c r="A98" s="2" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99" ht="16.5" customHeight="1" spans="1:1">
       <c r="A99" s="2" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
     </row>
     <row r="100" ht="16.5" customHeight="1" spans="1:1">
       <c r="A100" s="2" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101" ht="16.5" customHeight="1" spans="1:1">
       <c r="A101" s="2" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
     </row>
     <row r="102" ht="16.5" customHeight="1" spans="1:1">
       <c r="A102" s="2" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" ht="16.5" customHeight="1" spans="1:1">
       <c r="A103" s="2" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104" ht="16.5" customHeight="1" spans="1:1">
       <c r="A104" s="2" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
     </row>
     <row r="105" ht="16.5" customHeight="1" spans="1:1">
       <c r="A105" s="2" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
     </row>
     <row r="106" ht="16.5" customHeight="1" spans="1:1">
       <c r="A106" s="2" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" ht="16.5" customHeight="1" spans="1:1">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" ht="16.5" customHeight="1" spans="1:1">
       <c r="A108" s="2" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" ht="16.5" customHeight="1" spans="1:1">
       <c r="A109" s="2" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
     </row>
     <row r="110" ht="16.5" customHeight="1" spans="1:1">
       <c r="A110" s="2" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
     </row>
     <row r="111" ht="16.5" customHeight="1" spans="1:1">
       <c r="A111" s="2" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
     </row>
     <row r="112" ht="16.5" customHeight="1" spans="1:1">
       <c r="A112" s="2" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" ht="16.5" customHeight="1" spans="1:1">
       <c r="A113" s="2" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" ht="16.5" customHeight="1" spans="1:1">
       <c r="A114" s="2" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="115" ht="16.5" customHeight="1" spans="1:1">
       <c r="A115" s="2" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" ht="16.5" customHeight="1" spans="1:1">
       <c r="A116" s="2" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="117" ht="16.5" customHeight="1" spans="1:1">
       <c r="A117" s="2" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="118" ht="16.5" customHeight="1" spans="1:1">
       <c r="A118" s="2" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="119" ht="16.5" customHeight="1" spans="1:1">
       <c r="A119" s="2" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120" ht="16.5" customHeight="1" spans="1:1">
       <c r="A120" s="2" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121" ht="16.5" customHeight="1" spans="1:1">
       <c r="A121" s="2" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="122" ht="16.5" customHeight="1" spans="1:1">
       <c r="A122" s="2" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="123" ht="16.5" customHeight="1" spans="1:1">
       <c r="A123" s="2" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
     </row>
     <row r="124" ht="16.5" customHeight="1" spans="1:1">
       <c r="A124" s="2" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
     </row>
     <row r="125" ht="16.5" customHeight="1" spans="1:1">
       <c r="A125" s="2" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
     </row>
     <row r="126" ht="16.5" customHeight="1" spans="1:1">
       <c r="A126" s="2" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
     </row>
     <row r="127" ht="16.5" customHeight="1" spans="1:1">
       <c r="A127" s="2" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
     </row>
     <row r="128" ht="16.5" customHeight="1" spans="1:1">
       <c r="A128" s="2" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
     </row>
     <row r="129" ht="16.5" customHeight="1" spans="1:1">
       <c r="A129" s="2" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
     </row>
     <row r="130" ht="16.5" customHeight="1" spans="1:1">
       <c r="A130" s="2" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
     </row>
     <row r="131" ht="16.5" customHeight="1" spans="1:1">
       <c r="A131" s="2" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
     </row>
     <row r="132" ht="16.5" customHeight="1" spans="1:1">
       <c r="A132" s="2" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
     </row>
     <row r="133" ht="16.5" customHeight="1" spans="1:1">
       <c r="A133" s="2" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
     </row>
     <row r="134" ht="16.5" customHeight="1" spans="1:1">
       <c r="A134" s="2" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
     </row>
     <row r="135" ht="16.5" customHeight="1" spans="1:1">
       <c r="A135" s="2" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
     </row>
     <row r="136" ht="16.5" customHeight="1" spans="1:1">
       <c r="A136" s="2" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
     </row>
     <row r="137" ht="16.5" customHeight="1" spans="1:1">
       <c r="A137" s="2" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
     </row>
     <row r="138" ht="16.5" customHeight="1" spans="1:1">
       <c r="A138" s="2" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
     </row>
     <row r="139" ht="16.5" customHeight="1" spans="1:1">
       <c r="A139" s="2" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
     </row>
     <row r="140" ht="16.5" customHeight="1" spans="1:1">
       <c r="A140" s="2" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
     </row>
     <row r="141" ht="16.5" customHeight="1" spans="1:1">
       <c r="A141" s="2" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
     </row>
     <row r="142" ht="16.5" customHeight="1" spans="1:1">
       <c r="A142" s="2" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
     </row>
     <row r="143" ht="16.5" customHeight="1" spans="1:1">
       <c r="A143" s="2" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
     </row>
     <row r="144" ht="16.5" customHeight="1" spans="1:1">
       <c r="A144" s="2" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
     </row>
     <row r="145" ht="16.5" customHeight="1" spans="1:1">
       <c r="A145" s="2" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
     </row>
     <row r="146" ht="16.5" customHeight="1" spans="1:1">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
     </row>
     <row r="147" ht="16.5" customHeight="1" spans="1:1">
       <c r="A147" s="2" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
     </row>
     <row r="148" ht="16.5" customHeight="1" spans="1:1">
       <c r="A148" s="2" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
     </row>
     <row r="149" ht="16.5" customHeight="1" spans="1:1">
       <c r="A149" s="2" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
     </row>
     <row r="150" ht="16.5" customHeight="1" spans="1:1">
       <c r="A150" s="2" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
     </row>
     <row r="151" ht="16.5" customHeight="1" spans="1:1">
       <c r="A151" s="2" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
     </row>
     <row r="152" ht="16.5" customHeight="1" spans="1:1">
       <c r="A152" s="2" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
     </row>
     <row r="153" ht="16.5" customHeight="1" spans="1:1">
       <c r="A153" s="2" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
     </row>
     <row r="154" ht="16.5" customHeight="1" spans="1:1">
       <c r="A154" s="2" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
     </row>
     <row r="155" ht="16.5" customHeight="1" spans="1:1">
       <c r="A155" s="2" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
     </row>
     <row r="156" ht="16.5" customHeight="1" spans="1:1">
       <c r="A156" s="2" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
     </row>
     <row r="157" ht="16.5" customHeight="1" spans="1:1">
       <c r="A157" s="2" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
     </row>
     <row r="158" ht="16.5" customHeight="1" spans="1:1">
       <c r="A158" s="2" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
     </row>
     <row r="159" ht="16.5" customHeight="1" spans="1:1">
       <c r="A159" s="2" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
     </row>
     <row r="160" ht="16.5" customHeight="1" spans="1:1">
       <c r="A160" s="2" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
     </row>
     <row r="161" ht="16.5" customHeight="1" spans="1:1">
       <c r="A161" s="2" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
